--- a/upload/Plantilla.xlsx
+++ b/upload/Plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690BB5B1-8F1C-43E8-895C-AF5AB7766F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A89CD8E-BB10-4A5D-B2C8-0576C58DEE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{11818009-BD92-4663-B2A7-B2695790389F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{11818009-BD92-4663-B2A7-B2695790389F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>Cedula </t>
   </si>
   <si>
-    <t>quorum</t>
-  </si>
-  <si>
-    <t>Apto</t>
+    <t>Coeficiente</t>
+  </si>
+  <si>
+    <t>Propiedad</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,6 +471,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
